--- a/uniqueList.xlsx
+++ b/uniqueList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woo/Documents/Github/team5-waterandfish-Video/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EDA610-DAE9-3C43-B4A5-54F1D5F26567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22991073-4097-B742-AA45-ED12FD63FCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-11040" windowWidth="38400" windowHeight="21640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3211,7 +3211,7 @@
   <dimension ref="A2:C525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5:C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
